--- a/data/trans_bre/POLIPATOLOGÍA-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,95</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,97</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>21,65%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-26,82%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,9</t>
+          <t>-5,79; 1,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,43</t>
+          <t>-1,8; 7,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,22</t>
+          <t>-1,36; 6,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -0,97</t>
+          <t>0,73; 13,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 66,57</t>
+          <t>-35,37; 12,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 45,77</t>
+          <t>-12,02; 73,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 50,62</t>
+          <t>-17,06; 98,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,96; -7,39</t>
+          <t>2,01; 45,37</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>18,99</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-17,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>58,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-11,64%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-17,29%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,71</t>
+          <t>-7,57; 1,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 26,07</t>
+          <t>-4,41; 5,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 2,5</t>
+          <t>-3,93; 3,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,3</t>
+          <t>10,67; 26,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 39,79</t>
+          <t>-37,92; 12,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 92,28</t>
+          <t>-29,09; 47,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 22,02</t>
+          <t>-41,12; 73,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 9,92</t>
+          <t>29,65; 95,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>19,72</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>29,99</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>236,02%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>65,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>78,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 11,16</t>
+          <t>-3,22; 8,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,64; 42,23</t>
+          <t>8,2; 34,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 18,76</t>
+          <t>-0,04; 12,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 6,29</t>
+          <t>18,08; 41,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 92,66</t>
+          <t>-13,39; 41,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 107,85</t>
+          <t>42,98; 1181,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,02; 162,68</t>
+          <t>-1,61; 154,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 33,31</t>
+          <t>35,08; 109,77</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,64</t>
+          <t>28,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>21,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>213,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>-24,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,6%</t>
+          <t>58,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,79</t>
+          <t>-4,71; 3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 30,4</t>
+          <t>-1,19; 64,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 31,94</t>
+          <t>-7,67; 0,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,01</t>
+          <t>12,86; 29,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 7,03</t>
+          <t>-19,54; 16,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,82; 94,38</t>
+          <t>-9,0; 541,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 207,14</t>
+          <t>-44,74; 2,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 10,27</t>
+          <t>29,69; 93,95</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>12,59</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,21</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>36,45</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,61</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>121,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>113,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>149,47%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>94,1%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>60,12%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,04</t>
+          <t>5,0; 15,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,17; 48,1</t>
+          <t>1,53; 19,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 17,62</t>
+          <t>3,8; 15,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,75</t>
+          <t>22,93; 48,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,67; 195,74</t>
+          <t>25,41; 116,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,79; 280,67</t>
+          <t>18,68; 251,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,17; 145,66</t>
+          <t>33,73; 253,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,85; 104,5</t>
+          <t>66,27; 290,85</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,72</t>
+          <t>19,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,35</t>
+          <t>18,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,61</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,83</t>
+          <t>27,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>384,46%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1936,39%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>174,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1170,16%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>485,67%</t>
+          <t>163,17%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 37,23</t>
+          <t>14,66; 24,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 39,61</t>
+          <t>15,64; 22,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,79; 22,15</t>
+          <t>1,84; 38,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 21,09</t>
+          <t>8,03; 38,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>163,62; 892,23</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>630,77; 7619,63</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14,08; 457,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>475,72; 2909,21</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>237,41; 939,86</t>
+          <t>16,5; 442,98</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>14,91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>18,1</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>140,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>53,45%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,84</t>
+          <t>0,24; 3,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 21,88</t>
+          <t>6,12; 41,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 17,29</t>
+          <t>-0,48; 3,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,28</t>
+          <t>14,28; 21,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 26,62</t>
+          <t>1,43; 23,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,89; 68,9</t>
+          <t>55,24; 462,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,59; 130,78</t>
+          <t>-4,51; 38,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 20,54</t>
+          <t>39,36; 68,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGÍA-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 1,48</t>
+          <t>-3,85; 2,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 7,21</t>
+          <t>-2,43; 6,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,21</t>
+          <t>0,65; 13,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 12,14</t>
+          <t>-27,75; 23,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 73,1</t>
+          <t>-16,15; 65,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 45,37</t>
+          <t>1,56; 44,97</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,9</t>
+          <t>-6,22; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 5,05</t>
+          <t>-4,28; 5,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 26,34</t>
+          <t>10,84; 26,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,92; 12,61</t>
+          <t>-34,97; 17,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 47,94</t>
+          <t>-27,99; 53,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,65; 95,96</t>
+          <t>28,91; 98,8</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 8,6</t>
+          <t>-1,66; 9,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 34,06</t>
+          <t>8,63; 32,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 41,83</t>
+          <t>17,76; 39,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 41,4</t>
+          <t>-7,52; 49,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,98; 1181,48</t>
+          <t>44,01; 1208,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,08; 109,77</t>
+          <t>34,28; 101,33</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,2</t>
+          <t>-4,43; 3,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 64,19</t>
+          <t>-1,03; 59,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 29,99</t>
+          <t>12,14; 30,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 16,79</t>
+          <t>-19,36; 16,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 541,8</t>
+          <t>-8,05; 555,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 93,95</t>
+          <t>29,33; 98,38</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 15,36</t>
+          <t>6,83; 16,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 19,53</t>
+          <t>-0,16; 19,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,93; 48,87</t>
+          <t>23,73; 48,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,41; 116,91</t>
+          <t>38,26; 134,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 251,1</t>
+          <t>17,78; 246,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,27; 290,85</t>
+          <t>72,84; 287,22</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,87</t>
+          <t>20,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>384,46%</t>
+          <t>738,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,66; 24,12</t>
+          <t>16,39; 24,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,27</t>
+          <t>15,7; 22,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 38,91</t>
+          <t>8,96; 39,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>163,62; 892,23</t>
+          <t>327,87; 1783,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>630,77; 7619,63</t>
+          <t>591,2; 6965,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,5; 442,98</t>
+          <t>19,23; 411,75</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,96</t>
+          <t>1,25; 4,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 41,04</t>
+          <t>6,35; 36,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,28; 21,71</t>
+          <t>14,32; 21,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 23,45</t>
+          <t>7,44; 29,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,24; 462,57</t>
+          <t>54,62; 472,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,36; 68,5</t>
+          <t>38,83; 68,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGÍA-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,78</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,95</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,71; 7,41</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 13,17</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 6,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-3,85; 2,35</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 6,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 6,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 13,17</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-12,07; 72,5</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 44,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-17,06; 98,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-27,75; 23,02</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-16,15; 65,41</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; 98,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 44,97</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18,99</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-1,86</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,99</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-12,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>58,51%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,31; 5,35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 26,81</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 3,98</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-6,22; 2,39</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 5,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 3,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>10,84; 26,81</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-29,01; 54,96</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 98,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-41,12; 73,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-34,97; 17,95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,99; 53,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-41,12; 73,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>28,91; 98,8</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29,99</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,69</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>29,99</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>66,09%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65,57%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>17,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>236,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>57,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>65,57%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,96; 19,46</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 39,98</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 12,74</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-1,66; 9,4</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 32,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 12,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>17,76; 39,98</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>13,43; 139,54</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>34,28; 101,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 154,3</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-7,52; 49,12</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>44,01; 1208,83</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 154,3</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>34,28; 101,33</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21,72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-0,45</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>28,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,72</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58,59%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-24,54%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>213,49%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-24,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>58,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,94; 3,76</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 30,62</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 0,3</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-4,43; 3,0</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 59,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 0,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>12,14; 30,62</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-20,61; 34,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 98,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; 2,79</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-19,36; 16,15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 555,44</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-44,74; 2,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>29,33; 98,38</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>15,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,21</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>11,62</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,21</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>36,45</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>158,33%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>149,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>113,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>76,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>121,45%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>113,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>149,47%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>10,73; 20,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23,73; 48,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 15,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>6,83; 16,41</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 19,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 15,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>23,73; 48,87</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>76,55; 284,62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>72,84; 287,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,73; 253,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>38,26; 134,4</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,78; 246,9</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>33,73; 253,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>72,84; 287,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>18,32</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27,38</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11,78</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>20,07</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,78</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>27,38</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>1773,68%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>163,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>738,31%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1936,39%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>163,17%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>15,16; 21,57</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 39,4</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 38,07</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>16,39; 24,01</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>15,7; 22,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 38,07</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 39,4</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>551,64; 6440,61</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 411,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>327,87; 1783,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>591,2; 6965,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19,23; 411,75</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18,1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,91</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>14,91</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>53,94%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53,45%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>18,07%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>140,87%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>53,45%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,49; 8,36</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 21,76</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 3,35</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>1,25; 4,6</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 36,19</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 3,35</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,32; 21,76</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>34,79; 76,02</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38,83; 68,01</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 38,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>7,44; 29,95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>54,62; 472,77</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 38,66</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>38,83; 68,01</t>
         </is>
       </c>
     </row>
